--- a/TRAINING2022/Week 1 SQL/assignment1.xlsx
+++ b/TRAINING2022/Week 1 SQL/assignment1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Evosys_Training\TRAINING2022\Week 1 SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Evosys-Training\Evosys-Training\TRAINING2022\Week 1 SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEE4CDF-7B94-457D-8AA8-B1F791DDD0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB6F32-5BA2-474D-AE8F-2D528ABD2D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" activeTab="2" xr2:uid="{0B9632A9-39A5-41D5-B8D1-934489C1D1F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Assignment 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignment 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>SID</t>
   </si>
@@ -199,6 +199,117 @@
   </si>
   <si>
     <t>OID</t>
+  </si>
+  <si>
+    <t>1-nf</t>
+  </si>
+  <si>
+    <t>2-nf</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>S_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adams </t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>F_Phone</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>3-NF</t>
+  </si>
+  <si>
+    <t>FID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculty </t>
+  </si>
+  <si>
+    <t>Howser</t>
+  </si>
+  <si>
+    <t>Cname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>P_desc</t>
+  </si>
+  <si>
+    <t>P_Price</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Dresser</t>
+  </si>
+  <si>
+    <t>O_date</t>
+  </si>
+  <si>
+    <t>C_state</t>
+  </si>
+  <si>
+    <t>10/24/09</t>
+  </si>
+  <si>
+    <t>Apex</t>
+  </si>
+  <si>
+    <t>Acme</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Odate</t>
+  </si>
+  <si>
+    <t>Pdesc</t>
+  </si>
+  <si>
+    <t>1-NF</t>
+  </si>
+  <si>
+    <t>2-NF</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>P_price</t>
+  </si>
+  <si>
+    <t>DID</t>
+  </si>
+  <si>
+    <t>Pail</t>
   </si>
 </sst>
 </file>
@@ -234,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -257,11 +368,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -272,6 +405,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BE438D-6A17-43CC-8D93-D6B3944271FF}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,6 +868,16 @@
         <v>4589660192</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>0</v>
@@ -881,7 +1039,397 @@
         <v>60192</v>
       </c>
     </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="6">
+        <v>60192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="6">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="6">
+        <v>60192</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6">
+        <v>4</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="6">
+        <v>60192</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="6">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="6">
+        <v>60192</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="6">
+        <v>60192</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45869</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F34" s="6">
+        <v>4</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="6">
+        <v>2</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="6">
+        <v>4</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="6">
+        <v>3</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="J36" s="6">
+        <v>4</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B17:G18"/>
+    <mergeCell ref="B29:K30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -890,15 +1438,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4AF206-DB1A-4ECD-86EC-056F9EA81BD5}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
@@ -909,7 +1457,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -932,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>10</v>
       </c>
@@ -955,7 +1503,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -978,7 +1526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>10</v>
       </c>
@@ -1001,7 +1549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1024,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>14</v>
       </c>
@@ -1047,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
@@ -1058,54 +1606,1011 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="I11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>27</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="6">
+        <v>10</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="6">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="I14" s="6">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="6">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="6">
+        <v>14</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9">
+        <v>21</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6">
+        <v>14</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>27</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>11</v>
+      </c>
+      <c r="B27" s="6">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9">
+        <v>22</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <v>26</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6">
+        <v>21</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9">
+        <v>21</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>39</v>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9">
+        <v>14</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>11</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A20:I21"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F0F3FF-534B-4EFE-9E16-8B332CA514D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="6">
+        <v>800</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="6">
+        <v>325</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="6">
+        <v>200</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="6">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="6">
+        <v>500</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>200</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>7</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="9">
+        <v>800</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1006</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="9">
+        <v>325</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1006</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>1006</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="9">
+        <v>200</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1006</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B19" s="6">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="9">
+        <v>500</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1007</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1007</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1007</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="10">
+        <v>7</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>7</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="11">
+        <v>800</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1006</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="6">
+        <v>2</v>
+      </c>
+      <c r="N28" s="6">
+        <v>2</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>2</v>
+      </c>
+      <c r="B29" s="10">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="11">
+        <v>325</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1007</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="6">
+        <v>6</v>
+      </c>
+      <c r="N29" s="6">
+        <v>6</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>4</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>6</v>
+      </c>
+      <c r="B31" s="10">
+        <v>11</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>6</v>
+      </c>
+      <c r="B32" s="10">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K2:L4"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="A24:H25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>